--- a/images/guias/plantilla_cambio_estado_items.XLSX
+++ b/images/guias/plantilla_cambio_estado_items.XLSX
@@ -29,7 +29,7 @@
     <t>CODIGO</t>
   </si>
   <si>
-    <t>ESTADO (1 =ACTIVO, 2 = BLOQUEADO)</t>
+    <t>ESTADO (0 = INACTIVO, 1 = ACTIVO, 2 = BLOQUEADO)</t>
   </si>
 </sst>
 </file>
@@ -373,13 +373,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
